--- a/data/case1/2/cost_3.xlsx
+++ b/data/case1/2/cost_3.xlsx
@@ -63,13 +63,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>160.88499516318512</v>
+        <v>160.87862187321258</v>
       </c>
       <c r="B1" s="0">
-        <v>5.6824897789757296</v>
+        <v>5.2059844324812143</v>
       </c>
       <c r="C1" s="0">
-        <v>2.0557729941291587</v>
+        <v>2.9072407045009783</v>
       </c>
     </row>
   </sheetData>
